--- a/bin/finance_data/cashflow.xlsx
+++ b/bin/finance_data/cashflow.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Method: Indirect</t>
   </si>
@@ -80,9 +80,6 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t>Depreciation and amortization</t>
   </si>
   <si>
     <t>Deferred Income Tax Expense</t>
@@ -174,11 +171,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -216,54 +213,15 @@
       <charset val="0"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,17 +242,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,7 +258,68 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -323,22 +333,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,14 +352,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,19 +366,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,13 +390,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,31 +444,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,73 +528,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,25 +540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,24 +588,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -629,6 +608,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -644,17 +638,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,18 +657,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,130 +689,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,7 +1148,7 @@
   <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1267,9 +1264,7 @@
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1">
         <v>10000</v>
       </c>
@@ -1281,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
         <v>37</v>
@@ -1294,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <v>38</v>
@@ -1307,7 +1302,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <v>39</v>
@@ -1320,7 +1315,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <v>40</v>
@@ -1333,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <v>41</v>
@@ -1346,7 +1341,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
         <v>42</v>
@@ -1359,7 +1354,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <v>43</v>
@@ -1372,7 +1367,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
         <v>44</v>
@@ -1385,7 +1380,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
         <v>45</v>
@@ -1398,7 +1393,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <v>46</v>
@@ -1411,13 +1406,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
         <v>47</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1431,7 +1426,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1453,7 +1448,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1">
         <v>6576</v>
@@ -1466,7 +1461,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1">
         <v>6577</v>
@@ -1479,7 +1474,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
         <v>6578</v>
@@ -1492,7 +1487,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
         <v>6579</v>
@@ -1505,7 +1500,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1">
         <v>6580</v>
@@ -1518,7 +1513,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1">
         <v>6581</v>
@@ -1531,13 +1526,13 @@
         <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="1">
         <v>6582</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -1551,7 +1546,7 @@
     <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1560,7 +1555,7 @@
     <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>7</v>
@@ -1573,7 +1568,7 @@
         <v>22</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1">
         <v>45</v>
@@ -1586,7 +1581,7 @@
         <v>23</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="1">
         <v>46</v>
@@ -1599,7 +1594,7 @@
         <v>24</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="1">
         <v>47</v>
@@ -1612,7 +1607,7 @@
         <v>25</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1">
         <v>48</v>
@@ -1625,13 +1620,13 @@
         <v>26</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" s="1">
         <v>49</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -1645,20 +1640,20 @@
     <row r="42" spans="1:5">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1">
         <v>34</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1">
         <v>35</v>
